--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
